--- a/1-Situacioni/regjistri/Koordinatat.xlsx
+++ b/1-Situacioni/regjistri/Koordinatat.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="7">
   <si>
     <t>Shtëpi-Ndërtesë</t>
   </si>
@@ -97,7 +97,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -120,20 +120,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -146,14 +137,23 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -459,298 +459,271 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F21"/>
+  <dimension ref="B2:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="1"/>
-    <col min="8" max="9" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="8.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="1"/>
+    <col min="9" max="9" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G2" s="11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
-        <v>1</v>
-      </c>
-      <c r="B2" s="8">
-        <v>7511461.9199999999</v>
-      </c>
-      <c r="C2" s="8">
-        <v>4720540.6500000004</v>
-      </c>
-      <c r="D2" s="8">
-        <v>636.79100000000005</v>
-      </c>
-      <c r="E2" s="7">
-        <v>40</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="6">
+        <v>90</v>
+      </c>
+      <c r="C3" s="7">
+        <v>7512503.6030000001</v>
+      </c>
+      <c r="D3" s="7">
+        <v>4692045.5130000003</v>
+      </c>
+      <c r="E3" s="7">
+        <v>620.03</v>
+      </c>
+      <c r="F3" s="6">
+        <v>40</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="6">
+        <v>91</v>
+      </c>
+      <c r="C4" s="7">
+        <v>7512511.3190000001</v>
+      </c>
+      <c r="D4" s="7">
+        <v>4692055.47</v>
+      </c>
+      <c r="E4" s="7">
+        <v>620.03</v>
+      </c>
+      <c r="F4" s="6">
+        <v>40</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="6">
+        <v>117</v>
+      </c>
+      <c r="C5" s="7">
+        <v>7512513.6816999996</v>
+      </c>
+      <c r="D5" s="7">
+        <v>4692037.8244000003</v>
+      </c>
+      <c r="E5" s="7">
+        <v>620.03</v>
+      </c>
+      <c r="F5" s="6">
+        <v>40</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="8">
-        <v>7511465.4800000004</v>
-      </c>
-      <c r="C3" s="8">
-        <v>4720540.51</v>
-      </c>
-      <c r="D3" s="8">
-        <v>636.79100000000005</v>
-      </c>
-      <c r="E3" s="7">
-        <v>40</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+      <c r="C6" s="7">
+        <v>7512521.7503000004</v>
+      </c>
+      <c r="D6" s="7">
+        <v>4692044.6613999996</v>
+      </c>
+      <c r="E6" s="7">
+        <v>620.03</v>
+      </c>
+      <c r="F6" s="6">
+        <v>40</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="8">
-        <v>7511465.4500000002</v>
-      </c>
-      <c r="C4" s="8">
-        <v>4720539.24</v>
-      </c>
-      <c r="D4" s="8">
-        <v>636.79100000000005</v>
-      </c>
-      <c r="E4" s="7">
-        <v>40</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <v>4</v>
-      </c>
-      <c r="B5" s="8">
-        <v>7511473.04</v>
-      </c>
-      <c r="C5" s="8">
-        <v>4720539.09</v>
-      </c>
-      <c r="D5" s="8">
-        <v>636.79100000000005</v>
-      </c>
-      <c r="E5" s="7">
-        <v>40</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
+      <c r="C7" s="7">
+        <v>7512515.6398999998</v>
+      </c>
+      <c r="D7" s="7">
+        <v>4692034.6979999999</v>
+      </c>
+      <c r="E7" s="7">
+        <v>620.03</v>
+      </c>
+      <c r="F7" s="6">
+        <v>40</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="6">
         <v>5</v>
       </c>
-      <c r="B6" s="8">
-        <v>7511472.9500000002</v>
-      </c>
-      <c r="C6" s="8">
-        <v>4720536.04</v>
-      </c>
-      <c r="D6" s="8">
-        <v>636.79100000000005</v>
-      </c>
-      <c r="E6" s="7">
-        <v>40</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
+      <c r="C8" s="7">
+        <v>7512520.0048000002</v>
+      </c>
+      <c r="D8" s="7">
+        <v>4692045.9839000003</v>
+      </c>
+      <c r="E8" s="7">
+        <v>620.03</v>
+      </c>
+      <c r="F8" s="6">
+        <v>40</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="6">
         <v>6</v>
       </c>
-      <c r="B7" s="8">
-        <v>7511473.79</v>
-      </c>
-      <c r="C7" s="8">
-        <v>4720536.0199999996</v>
-      </c>
-      <c r="D7" s="8">
-        <v>636.79100000000005</v>
-      </c>
-      <c r="E7" s="7">
-        <v>40</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
-        <v>7</v>
-      </c>
-      <c r="B8" s="8">
-        <v>7511473.7300000004</v>
-      </c>
-      <c r="C8" s="8">
-        <v>4720533.22</v>
-      </c>
-      <c r="D8" s="8">
-        <v>636.79100000000005</v>
-      </c>
-      <c r="E8" s="7">
-        <v>40</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
-        <v>8</v>
-      </c>
-      <c r="B9" s="8">
-        <v>7511472.8600000003</v>
-      </c>
-      <c r="C9" s="8">
-        <v>4720533.24</v>
-      </c>
-      <c r="D9" s="8">
-        <v>636.79100000000005</v>
+      <c r="C9" s="7">
+        <v>7512521.432</v>
+      </c>
+      <c r="D9" s="7">
+        <v>4692047.8080000002</v>
       </c>
       <c r="E9" s="7">
-        <v>40</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
-        <v>9</v>
-      </c>
-      <c r="B10" s="8">
-        <v>7511472.7300000004</v>
-      </c>
-      <c r="C10" s="8">
-        <v>4720529.41</v>
-      </c>
-      <c r="D10" s="8">
-        <v>636.79100000000005</v>
+        <v>620.03</v>
+      </c>
+      <c r="F9" s="6">
+        <v>40</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="6">
+        <v>123</v>
+      </c>
+      <c r="C10" s="7">
+        <v>7512503.5549999997</v>
+      </c>
+      <c r="D10" s="7">
+        <v>4692042.801</v>
       </c>
       <c r="E10" s="7">
-        <v>40</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
-        <v>10</v>
-      </c>
-      <c r="B11" s="8">
-        <v>7511462.1799999997</v>
-      </c>
-      <c r="C11" s="8">
-        <v>4720529.92</v>
-      </c>
-      <c r="D11" s="8">
-        <v>636.79100000000005</v>
+        <v>620.00300000000004</v>
+      </c>
+      <c r="F10" s="6">
+        <v>40</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="6">
+        <v>124</v>
+      </c>
+      <c r="C11" s="7">
+        <v>7512504.835</v>
+      </c>
+      <c r="D11" s="7">
+        <v>4692044.5269999998</v>
       </c>
       <c r="E11" s="7">
-        <v>40</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
-        <v>11</v>
-      </c>
-      <c r="B12" s="8">
-        <v>7511462.3099999996</v>
-      </c>
-      <c r="C12" s="8">
-        <v>4720532.87</v>
-      </c>
-      <c r="D12" s="8">
-        <v>636.79100000000005</v>
-      </c>
-      <c r="E12" s="7">
-        <v>40</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
-        <v>12</v>
-      </c>
-      <c r="B13" s="8">
-        <v>7511461.6600000001</v>
-      </c>
-      <c r="C13" s="8">
-        <v>4720532.91</v>
-      </c>
-      <c r="D13" s="8">
-        <v>636.79100000000005</v>
-      </c>
-      <c r="E13" s="7">
-        <v>40</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="3"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
+        <v>620.00300000000004</v>
+      </c>
+      <c r="F11" s="6">
+        <v>40</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="8"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+    </row>
+    <row r="14" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="8"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="4"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/1-Situacioni/regjistri/Koordinatat.xlsx
+++ b/1-Situacioni/regjistri/Koordinatat.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="9">
   <si>
     <t>Shtëpi-Ndërtesë</t>
   </si>
@@ -45,15 +45,21 @@
   <si>
     <t>Përshkrimi</t>
   </si>
+  <si>
+    <t>Koordinatat e parceles 734-18</t>
+  </si>
+  <si>
+    <t>Koordinatat e parceles 733-20</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,7 +103,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -120,20 +126,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -143,17 +179,17 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -215,7 +251,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -247,10 +283,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -282,7 +317,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -458,274 +492,529 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S15" sqref="S15"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="8.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.140625" style="1"/>
-    <col min="9" max="9" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="9" max="9" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="11" t="s">
+    <row r="2" spans="2:11">
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="6">
-        <v>90</v>
-      </c>
-      <c r="C3" s="7">
-        <v>7512503.6030000001</v>
-      </c>
-      <c r="D3" s="7">
-        <v>4692045.5130000003</v>
-      </c>
-      <c r="E3" s="7">
-        <v>620.03</v>
-      </c>
-      <c r="F3" s="6">
-        <v>40</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="6">
-        <v>91</v>
-      </c>
-      <c r="C4" s="7">
-        <v>7512511.3190000001</v>
-      </c>
-      <c r="D4" s="7">
-        <v>4692055.47</v>
-      </c>
-      <c r="E4" s="7">
-        <v>620.03</v>
-      </c>
-      <c r="F4" s="6">
-        <v>40</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="6">
-        <v>117</v>
-      </c>
-      <c r="C5" s="7">
-        <v>7512513.6816999996</v>
-      </c>
-      <c r="D5" s="7">
-        <v>4692037.8244000003</v>
-      </c>
-      <c r="E5" s="7">
-        <v>620.03</v>
-      </c>
-      <c r="F5" s="6">
-        <v>40</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="6">
+      <c r="I2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="7"/>
+      <c r="K2" s="8"/>
+    </row>
+    <row r="3" spans="2:11">
+      <c r="B3" s="3">
+        <v>12</v>
+      </c>
+      <c r="C3" s="4">
+        <v>7511877.2290000003</v>
+      </c>
+      <c r="D3" s="4">
+        <v>4692127.6189999999</v>
+      </c>
+      <c r="E3" s="4">
+        <v>616.5</v>
+      </c>
+      <c r="F3" s="3">
+        <v>40</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="7">
-        <v>7512521.7503000004</v>
-      </c>
-      <c r="D6" s="7">
-        <v>4692044.6613999996</v>
-      </c>
-      <c r="E6" s="7">
-        <v>620.03</v>
-      </c>
-      <c r="F6" s="6">
-        <v>40</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="6">
+      <c r="K3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="7">
-        <v>7512515.6398999998</v>
-      </c>
-      <c r="D7" s="7">
-        <v>4692034.6979999999</v>
-      </c>
-      <c r="E7" s="7">
-        <v>620.03</v>
-      </c>
-      <c r="F7" s="6">
-        <v>40</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="6">
-        <v>5</v>
-      </c>
-      <c r="C8" s="7">
-        <v>7512520.0048000002</v>
-      </c>
-      <c r="D8" s="7">
-        <v>4692045.9839000003</v>
-      </c>
-      <c r="E8" s="7">
-        <v>620.03</v>
-      </c>
-      <c r="F8" s="6">
-        <v>40</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="6">
-        <v>6</v>
-      </c>
-      <c r="C9" s="7">
-        <v>7512521.432</v>
-      </c>
-      <c r="D9" s="7">
-        <v>4692047.8080000002</v>
-      </c>
-      <c r="E9" s="7">
-        <v>620.03</v>
-      </c>
-      <c r="F9" s="6">
-        <v>40</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="6">
-        <v>123</v>
-      </c>
-      <c r="C10" s="7">
-        <v>7512503.5549999997</v>
-      </c>
-      <c r="D10" s="7">
-        <v>4692042.801</v>
-      </c>
-      <c r="E10" s="7">
-        <v>620.00300000000004</v>
-      </c>
-      <c r="F10" s="6">
-        <v>40</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="6">
-        <v>124</v>
-      </c>
-      <c r="C11" s="7">
-        <v>7512504.835</v>
-      </c>
-      <c r="D11" s="7">
-        <v>4692044.5269999998</v>
-      </c>
-      <c r="E11" s="7">
-        <v>620.00300000000004</v>
-      </c>
-      <c r="F11" s="6">
-        <v>40</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-    </row>
-    <row r="13" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-    </row>
-    <row r="14" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="4"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="3"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
+    </row>
+    <row r="4" spans="2:11">
+      <c r="B4" s="3">
+        <v>13</v>
+      </c>
+      <c r="C4" s="4">
+        <v>7511876.9670000002</v>
+      </c>
+      <c r="D4" s="4">
+        <v>4692124.6979999999</v>
+      </c>
+      <c r="E4" s="4">
+        <v>616.56600000000003</v>
+      </c>
+      <c r="F4" s="3">
+        <v>40</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3">
+        <v>168621</v>
+      </c>
+      <c r="J4" s="4">
+        <v>7511885.8310000002</v>
+      </c>
+      <c r="K4" s="4">
+        <v>4692127.443</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="15" customHeight="1">
+      <c r="B5" s="3">
+        <v>15</v>
+      </c>
+      <c r="C5" s="4">
+        <v>7511876.7088000001</v>
+      </c>
+      <c r="D5" s="4">
+        <v>4692121.8803000003</v>
+      </c>
+      <c r="E5" s="4">
+        <v>616.5</v>
+      </c>
+      <c r="F5" s="3">
+        <v>40</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3">
+        <v>181505</v>
+      </c>
+      <c r="J5" s="4">
+        <v>7511887.4450000003</v>
+      </c>
+      <c r="K5" s="4">
+        <v>4692119.66</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="15" customHeight="1">
+      <c r="B6" s="3">
+        <v>16</v>
+      </c>
+      <c r="C6" s="4">
+        <v>7511874.8679999998</v>
+      </c>
+      <c r="D6" s="4">
+        <v>4692122.074</v>
+      </c>
+      <c r="E6" s="4">
+        <v>616.5</v>
+      </c>
+      <c r="F6" s="3">
+        <v>40</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3">
+        <v>181506</v>
+      </c>
+      <c r="J6" s="4">
+        <v>7511888.2970000003</v>
+      </c>
+      <c r="K6" s="4">
+        <v>4692127.3020000001</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="15" customHeight="1">
+      <c r="B7" s="3">
+        <v>17</v>
+      </c>
+      <c r="C7" s="4">
+        <v>7511874.585</v>
+      </c>
+      <c r="D7" s="4">
+        <v>4692118.9589999998</v>
+      </c>
+      <c r="E7" s="4">
+        <v>616.50300000000004</v>
+      </c>
+      <c r="F7" s="3">
+        <v>40</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
+        <v>182180</v>
+      </c>
+      <c r="J7" s="4">
+        <v>7511884.9419999998</v>
+      </c>
+      <c r="K7" s="4">
+        <v>4692123.3310000002</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="15" customHeight="1">
+      <c r="B8" s="3">
+        <v>18</v>
+      </c>
+      <c r="C8" s="4">
+        <v>7511874.3169999998</v>
+      </c>
+      <c r="D8" s="4">
+        <v>4692118.7989999996</v>
+      </c>
+      <c r="E8" s="4">
+        <v>616.50599999999997</v>
+      </c>
+      <c r="F8" s="3">
+        <v>40</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="15" customHeight="1">
+      <c r="B9" s="3">
+        <v>19</v>
+      </c>
+      <c r="C9" s="4">
+        <v>7511873.3849999998</v>
+      </c>
+      <c r="D9" s="4">
+        <v>4692117.3899999997</v>
+      </c>
+      <c r="E9" s="4">
+        <v>616.40700000000004</v>
+      </c>
+      <c r="F9" s="3">
+        <v>40</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9" s="7"/>
+      <c r="K9" s="8"/>
+    </row>
+    <row r="10" spans="2:11" ht="15" customHeight="1">
+      <c r="B10" s="3">
+        <v>20</v>
+      </c>
+      <c r="C10" s="4">
+        <v>7511874.233</v>
+      </c>
+      <c r="D10" s="4">
+        <v>4692115.148</v>
+      </c>
+      <c r="E10" s="4">
+        <v>616.375</v>
+      </c>
+      <c r="F10" s="3">
+        <v>40</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" ht="15" customHeight="1">
+      <c r="B11" s="3">
+        <v>25</v>
+      </c>
+      <c r="C11" s="4">
+        <v>7511876.0319999997</v>
+      </c>
+      <c r="D11" s="4">
+        <v>4692114.5669999998</v>
+      </c>
+      <c r="E11" s="4">
+        <v>618.98800000000006</v>
+      </c>
+      <c r="F11" s="3">
+        <v>40</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3">
+        <v>168621</v>
+      </c>
+      <c r="J11" s="4">
+        <v>7511885.8310000002</v>
+      </c>
+      <c r="K11" s="4">
+        <v>4692127.443</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="15" customHeight="1">
+      <c r="B12" s="3">
+        <v>27</v>
+      </c>
+      <c r="C12" s="3">
+        <v>7511886.2280000001</v>
+      </c>
+      <c r="D12" s="3">
+        <v>4692123.8839999996</v>
+      </c>
+      <c r="E12" s="3">
+        <v>622.34799999999996</v>
+      </c>
+      <c r="F12" s="3">
+        <v>40</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3">
+        <v>168622</v>
+      </c>
+      <c r="J12" s="4">
+        <v>7511867.7390000001</v>
+      </c>
+      <c r="K12" s="4">
+        <v>4692128.4790000003</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" ht="15" customHeight="1">
+      <c r="B13" s="3">
+        <v>55</v>
+      </c>
+      <c r="C13" s="3">
+        <v>7511876.4255999997</v>
+      </c>
+      <c r="D13" s="3">
+        <v>4692118.7890999997</v>
+      </c>
+      <c r="E13" s="3">
+        <v>616.5</v>
+      </c>
+      <c r="F13" s="3">
+        <v>40</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I13" s="3">
+        <v>181505</v>
+      </c>
+      <c r="J13" s="4">
+        <v>7511887.4450000003</v>
+      </c>
+      <c r="K13" s="4">
+        <v>4692119.66</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" ht="15" customHeight="1">
+      <c r="B14" s="3">
+        <v>56</v>
+      </c>
+      <c r="C14" s="3">
+        <v>7511886.4900000002</v>
+      </c>
+      <c r="D14" s="3">
+        <v>4692126.8049999997</v>
+      </c>
+      <c r="E14" s="3">
+        <v>622.34799999999996</v>
+      </c>
+      <c r="F14" s="3">
+        <v>40</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>181509</v>
+      </c>
+      <c r="J14" s="4">
+        <v>7511886.7010000004</v>
+      </c>
+      <c r="K14" s="4">
+        <v>4692113</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11">
+      <c r="B15" s="3">
+        <v>57</v>
+      </c>
+      <c r="C15" s="3">
+        <v>7511885.2929999996</v>
+      </c>
+      <c r="D15" s="3">
+        <v>4692113.68</v>
+      </c>
+      <c r="E15" s="3">
+        <v>622.34799999999996</v>
+      </c>
+      <c r="F15" s="3">
+        <v>40</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>182180</v>
+      </c>
+      <c r="J15" s="4">
+        <v>7511884.9419999998</v>
+      </c>
+      <c r="K15" s="4">
+        <v>4692123.3310000002</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11">
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="I16" s="3">
+        <v>182181</v>
+      </c>
+      <c r="J16" s="4">
+        <v>7511866.2699999996</v>
+      </c>
+      <c r="K16" s="4">
+        <v>4692115.7300000004</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="I9:K9"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -733,14 +1022,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="T16" sqref="T16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="4" max="5" width="16.5703125" customWidth="1"/>
   </cols>
@@ -751,12 +1040,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/1-Situacioni/regjistri/Koordinatat.xlsx
+++ b/1-Situacioni/regjistri/Koordinatat.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="8">
   <si>
     <t>Shtëpi-Ndërtesë</t>
   </si>
@@ -46,20 +46,17 @@
     <t>Përshkrimi</t>
   </si>
   <si>
-    <t>Koordinatat e parceles 734-18</t>
-  </si>
-  <si>
-    <t>Koordinatat e parceles 733-20</t>
+    <t>Koordinatat e parceles 3227-0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -251,7 +248,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -283,9 +280,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -317,6 +315,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -492,14 +491,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="V16" sqref="V16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="3.42578125" style="1" bestFit="1" customWidth="1"/>
@@ -513,7 +512,7 @@
     <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
@@ -538,7 +537,7 @@
       <c r="J2" s="7"/>
       <c r="K2" s="8"/>
     </row>
-    <row r="3" spans="2:11">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="3">
         <v>12</v>
       </c>
@@ -567,7 +566,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:11">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="3">
         <v>13</v>
       </c>
@@ -596,7 +595,7 @@
         <v>4692127.443</v>
       </c>
     </row>
-    <row r="5" spans="2:11" ht="15" customHeight="1">
+    <row r="5" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="3">
         <v>15</v>
       </c>
@@ -616,16 +615,16 @@
         <v>0</v>
       </c>
       <c r="I5" s="3">
-        <v>181505</v>
+        <v>168622</v>
       </c>
       <c r="J5" s="4">
-        <v>7511887.4450000003</v>
+        <v>7511867.7390000001</v>
       </c>
       <c r="K5" s="4">
-        <v>4692119.66</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" ht="15" customHeight="1">
+        <v>4692128.4790000003</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3">
         <v>16</v>
       </c>
@@ -645,16 +644,16 @@
         <v>0</v>
       </c>
       <c r="I6" s="3">
-        <v>181506</v>
+        <v>181505</v>
       </c>
       <c r="J6" s="4">
-        <v>7511888.2970000003</v>
+        <v>7511887.4450000003</v>
       </c>
       <c r="K6" s="4">
-        <v>4692127.3020000001</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" ht="15" customHeight="1">
+        <v>4692119.66</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3">
         <v>17</v>
       </c>
@@ -674,16 +673,16 @@
         <v>0</v>
       </c>
       <c r="I7" s="3">
-        <v>182180</v>
+        <v>181506</v>
       </c>
       <c r="J7" s="4">
-        <v>7511884.9419999998</v>
+        <v>7511888.2970000003</v>
       </c>
       <c r="K7" s="4">
-        <v>4692123.3310000002</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" ht="15" customHeight="1">
+        <v>4692127.3020000001</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3">
         <v>18</v>
       </c>
@@ -702,8 +701,17 @@
       <c r="G8" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="2:11" ht="15" customHeight="1">
+      <c r="I8" s="3">
+        <v>181509</v>
+      </c>
+      <c r="J8" s="4">
+        <v>7511886.7010000004</v>
+      </c>
+      <c r="K8" s="4">
+        <v>4692113</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="3">
         <v>19</v>
       </c>
@@ -722,13 +730,17 @@
       <c r="G9" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="J9" s="7"/>
-      <c r="K9" s="8"/>
-    </row>
-    <row r="10" spans="2:11" ht="15" customHeight="1">
+      <c r="I9" s="3">
+        <v>182181</v>
+      </c>
+      <c r="J9" s="4">
+        <v>7511866.2699999996</v>
+      </c>
+      <c r="K9" s="4">
+        <v>4692115.7300000004</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>20</v>
       </c>
@@ -747,17 +759,8 @@
       <c r="G10" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I10" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" ht="15" customHeight="1">
+    </row>
+    <row r="11" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <v>25</v>
       </c>
@@ -776,17 +779,8 @@
       <c r="G11" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I11" s="3">
-        <v>168621</v>
-      </c>
-      <c r="J11" s="4">
-        <v>7511885.8310000002</v>
-      </c>
-      <c r="K11" s="4">
-        <v>4692127.443</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" ht="15" customHeight="1">
+    </row>
+    <row r="12" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <v>27</v>
       </c>
@@ -805,17 +799,8 @@
       <c r="G12" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I12" s="3">
-        <v>168622</v>
-      </c>
-      <c r="J12" s="4">
-        <v>7511867.7390000001</v>
-      </c>
-      <c r="K12" s="4">
-        <v>4692128.4790000003</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" ht="15" customHeight="1">
+    </row>
+    <row r="13" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <v>55</v>
       </c>
@@ -834,17 +819,8 @@
       <c r="G13" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I13" s="3">
-        <v>181505</v>
-      </c>
-      <c r="J13" s="4">
-        <v>7511887.4450000003</v>
-      </c>
-      <c r="K13" s="4">
-        <v>4692119.66</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" ht="15" customHeight="1">
+    </row>
+    <row r="14" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <v>56</v>
       </c>
@@ -863,17 +839,8 @@
       <c r="G14" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I14" s="3">
-        <v>181509</v>
-      </c>
-      <c r="J14" s="4">
-        <v>7511886.7010000004</v>
-      </c>
-      <c r="K14" s="4">
-        <v>4692113</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11">
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <v>57</v>
       </c>
@@ -892,68 +859,50 @@
       <c r="G15" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I15" s="3">
-        <v>182180</v>
-      </c>
-      <c r="J15" s="4">
-        <v>7511884.9419999998</v>
-      </c>
-      <c r="K15" s="4">
-        <v>4692123.3310000002</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11">
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16"/>
       <c r="C16"/>
       <c r="D16"/>
       <c r="E16"/>
       <c r="F16"/>
-      <c r="I16" s="3">
-        <v>182181</v>
-      </c>
-      <c r="J16" s="4">
-        <v>7511866.2699999996</v>
-      </c>
-      <c r="K16" s="4">
-        <v>4692115.7300000004</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7">
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17"/>
       <c r="C17"/>
       <c r="D17"/>
       <c r="E17"/>
       <c r="F17"/>
     </row>
-    <row r="18" spans="2:7">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18"/>
       <c r="C18"/>
       <c r="D18"/>
       <c r="E18"/>
       <c r="F18"/>
     </row>
-    <row r="19" spans="2:7">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19"/>
       <c r="C19"/>
       <c r="D19"/>
       <c r="E19"/>
       <c r="F19"/>
     </row>
-    <row r="20" spans="2:7">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20"/>
       <c r="C20"/>
       <c r="D20"/>
       <c r="E20"/>
       <c r="F20"/>
     </row>
-    <row r="21" spans="2:7">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21"/>
       <c r="C21"/>
       <c r="D21"/>
       <c r="E21"/>
       <c r="F21"/>
     </row>
-    <row r="22" spans="2:7">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22"/>
       <c r="C22"/>
       <c r="D22"/>
@@ -961,49 +910,49 @@
       <c r="F22"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="2:7">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23"/>
       <c r="C23"/>
       <c r="D23"/>
       <c r="E23"/>
       <c r="F23"/>
     </row>
-    <row r="24" spans="2:7">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24"/>
       <c r="C24"/>
       <c r="D24"/>
       <c r="E24"/>
       <c r="F24"/>
     </row>
-    <row r="25" spans="2:7">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25"/>
       <c r="C25"/>
       <c r="D25"/>
       <c r="E25"/>
       <c r="F25"/>
     </row>
-    <row r="26" spans="2:7">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26"/>
       <c r="C26"/>
       <c r="D26"/>
       <c r="E26"/>
       <c r="F26"/>
     </row>
-    <row r="27" spans="2:7">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27"/>
       <c r="C27"/>
       <c r="D27"/>
       <c r="E27"/>
       <c r="F27"/>
     </row>
-    <row r="28" spans="2:7">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28"/>
       <c r="C28"/>
       <c r="D28"/>
       <c r="E28"/>
       <c r="F28"/>
     </row>
-    <row r="29" spans="2:7">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29"/>
       <c r="C29"/>
       <c r="D29"/>
@@ -1011,9 +960,8 @@
       <c r="F29"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="I2:K2"/>
-    <mergeCell ref="I9:K9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1022,14 +970,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="T16" sqref="T16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="5" width="16.5703125" customWidth="1"/>
   </cols>
@@ -1040,12 +988,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
